--- a/data/begining_bracket.xlsx
+++ b/data/begining_bracket.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephdespres/Documents/MSU/STT-864_Statistical_Methods_II/March-Madness/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05C977A-4EB2-B946-8A89-080403F8EFEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060FBE1C-8655-AF42-BED9-701390BB28D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
   <si>
     <t>2021 NCAA Men's Basketball Championship Bracket</t>
   </si>
@@ -249,21 +249,6 @@
     <t>Norfolk St.</t>
   </si>
   <si>
-    <t>Wichita St.</t>
-  </si>
-  <si>
-    <t>Mount St. Mary's</t>
-  </si>
-  <si>
-    <t>Michigan St</t>
-  </si>
-  <si>
-    <t>First Four</t>
-  </si>
-  <si>
-    <t>App St.</t>
-  </si>
-  <si>
     <t>Drake</t>
   </si>
   <si>
@@ -271,9 +256,6 @@
   </si>
   <si>
     <t>UCLA</t>
-  </si>
-  <si>
-    <t>MARCH 17–18</t>
   </si>
 </sst>
 </file>
@@ -443,7 +425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -629,11 +611,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB7B7B7"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB7B7B7"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB7B7B7"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB7B7B7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFEFEFEF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFEFEFEF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -993,13 +1032,9 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1023,6 +1058,48 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1343,8 +1420,8 @@
   </sheetPr>
   <dimension ref="A1:AL99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73:C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1767,9 +1844,8 @@
       <c r="B9" s="110">
         <v>16</v>
       </c>
-      <c r="C9" s="111" t="str">
-        <f>IF(E95="",C94&amp;"/"&amp;C96,E95)</f>
-        <v>Norfolk St.</v>
+      <c r="C9" s="111" t="s">
+        <v>71</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="25"/>
@@ -2634,9 +2710,8 @@
       <c r="B29" s="110">
         <v>11</v>
       </c>
-      <c r="C29" s="111" t="str">
-        <f>IF(M95="",I94&amp;"/"&amp;I96,M95)</f>
-        <v>Drake</v>
+      <c r="C29" s="111" t="s">
+        <v>72</v>
       </c>
       <c r="D29" s="53"/>
       <c r="E29" s="25"/>
@@ -3659,9 +3734,8 @@
       <c r="B53" s="110">
         <v>16</v>
       </c>
-      <c r="C53" s="111" t="str">
-        <f>IF(W95="",AB94&amp;"/"&amp;AB96,W95)</f>
-        <v>Texas Southern</v>
+      <c r="C53" s="111" t="s">
+        <v>73</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="25"/>
@@ -4524,9 +4598,8 @@
       <c r="B73" s="110">
         <v>11</v>
       </c>
-      <c r="C73" s="111" t="str">
-        <f>IF(AG95="",AJ94&amp;"/"&amp;AJ96,AG95)</f>
-        <v>UCLA</v>
+      <c r="C73" s="163" t="s">
+        <v>74</v>
       </c>
       <c r="D73" s="53"/>
       <c r="E73" s="25"/>
@@ -5142,7 +5215,7 @@
       <c r="K87" s="18"/>
       <c r="L87" s="15"/>
       <c r="M87" s="15"/>
-      <c r="N87" s="151" t="str">
+      <c r="N87" s="149" t="str">
         <f>HYPERLINK("http://plexkits.com/?utm_source=resource&amp;utm_medium=ncaa-bracket&amp;utm_campaign=march-madness-2016","For more brackets visit PLEXKITS")</f>
         <v>For more brackets visit PLEXKITS</v>
       </c>
@@ -5421,24 +5494,16 @@
     </row>
     <row r="94" spans="1:38" ht="9" customHeight="1">
       <c r="A94" s="10"/>
-      <c r="B94" s="124">
-        <v>11</v>
-      </c>
-      <c r="C94" s="127" t="s">
-        <v>71</v>
-      </c>
+      <c r="B94" s="124"/>
+      <c r="C94" s="127"/>
       <c r="D94" s="13"/>
       <c r="E94" s="87"/>
       <c r="F94" s="87"/>
       <c r="G94" s="85"/>
-      <c r="H94" s="124">
-        <v>16</v>
-      </c>
-      <c r="I94" s="140" t="s">
-        <v>72</v>
-      </c>
-      <c r="J94" s="113"/>
-      <c r="K94" s="114"/>
+      <c r="H94" s="124"/>
+      <c r="I94" s="140"/>
+      <c r="J94" s="140"/>
+      <c r="K94" s="127"/>
       <c r="L94" s="85"/>
       <c r="M94" s="13"/>
       <c r="N94" s="13"/>
@@ -5455,172 +5520,136 @@
       <c r="Y94" s="87"/>
       <c r="Z94" s="87"/>
       <c r="AA94" s="88"/>
-      <c r="AB94" s="146" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC94" s="113"/>
-      <c r="AD94" s="114"/>
-      <c r="AE94" s="95">
-        <v>11</v>
-      </c>
+      <c r="AB94" s="144"/>
+      <c r="AC94" s="144"/>
+      <c r="AD94" s="147"/>
+      <c r="AE94" s="152"/>
       <c r="AF94" s="85"/>
       <c r="AG94" s="87"/>
       <c r="AH94" s="87"/>
       <c r="AI94" s="88"/>
-      <c r="AJ94" s="149" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK94" s="95">
-        <v>16</v>
-      </c>
+      <c r="AJ94" s="147"/>
+      <c r="AK94" s="152"/>
       <c r="AL94" s="10"/>
     </row>
     <row r="95" spans="1:38" ht="9" customHeight="1">
       <c r="A95" s="10"/>
-      <c r="B95" s="98"/>
-      <c r="C95" s="96"/>
+      <c r="B95" s="110"/>
+      <c r="C95" s="128"/>
       <c r="D95" s="89"/>
-      <c r="E95" s="142" t="s">
-        <v>71</v>
-      </c>
-      <c r="F95" s="93"/>
+      <c r="E95" s="141"/>
+      <c r="F95" s="141"/>
       <c r="G95" s="85"/>
-      <c r="H95" s="98"/>
-      <c r="I95" s="141"/>
-      <c r="J95" s="141"/>
-      <c r="K95" s="126"/>
+      <c r="H95" s="110"/>
+      <c r="I95" s="161"/>
+      <c r="J95" s="161"/>
+      <c r="K95" s="162"/>
       <c r="L95" s="90"/>
-      <c r="M95" s="147" t="s">
-        <v>77</v>
-      </c>
-      <c r="N95" s="93"/>
-      <c r="O95" s="93"/>
-      <c r="P95" s="93"/>
-      <c r="Q95" s="144" t="s">
-        <v>75</v>
-      </c>
-      <c r="R95" s="93"/>
-      <c r="S95" s="93"/>
-      <c r="T95" s="93"/>
-      <c r="U95" s="93"/>
-      <c r="V95" s="93"/>
-      <c r="W95" s="142" t="s">
-        <v>78</v>
-      </c>
-      <c r="X95" s="93"/>
-      <c r="Y95" s="93"/>
-      <c r="Z95" s="93"/>
+      <c r="M95" s="145"/>
+      <c r="N95" s="145"/>
+      <c r="O95" s="145"/>
+      <c r="P95" s="145"/>
+      <c r="Q95" s="142"/>
+      <c r="R95" s="142"/>
+      <c r="S95" s="142"/>
+      <c r="T95" s="142"/>
+      <c r="U95" s="142"/>
+      <c r="V95" s="142"/>
+      <c r="W95" s="141"/>
+      <c r="X95" s="141"/>
+      <c r="Y95" s="141"/>
+      <c r="Z95" s="141"/>
       <c r="AA95" s="91"/>
-      <c r="AB95" s="93"/>
-      <c r="AC95" s="93"/>
-      <c r="AD95" s="96"/>
-      <c r="AE95" s="96"/>
+      <c r="AB95" s="155"/>
+      <c r="AC95" s="155"/>
+      <c r="AD95" s="148"/>
+      <c r="AE95" s="150"/>
       <c r="AF95" s="85"/>
-      <c r="AG95" s="142" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH95" s="93"/>
+      <c r="AG95" s="141"/>
+      <c r="AH95" s="141"/>
       <c r="AI95" s="91"/>
-      <c r="AJ95" s="96"/>
-      <c r="AK95" s="96"/>
+      <c r="AJ95" s="148"/>
+      <c r="AK95" s="150"/>
       <c r="AL95" s="10"/>
     </row>
     <row r="96" spans="1:38" ht="9" customHeight="1">
       <c r="A96" s="10"/>
-      <c r="B96" s="110">
-        <v>11</v>
-      </c>
-      <c r="C96" s="128" t="s">
-        <v>76</v>
-      </c>
+      <c r="B96" s="110"/>
+      <c r="C96" s="128"/>
       <c r="D96" s="13"/>
-      <c r="E96" s="93"/>
-      <c r="F96" s="93"/>
+      <c r="E96" s="141"/>
+      <c r="F96" s="141"/>
       <c r="G96" s="85"/>
-      <c r="H96" s="110">
-        <v>16</v>
-      </c>
-      <c r="I96" s="143" t="s">
-        <v>77</v>
-      </c>
-      <c r="J96" s="93"/>
-      <c r="K96" s="96"/>
+      <c r="H96" s="110"/>
+      <c r="I96" s="157"/>
+      <c r="J96" s="157"/>
+      <c r="K96" s="158"/>
       <c r="L96" s="85"/>
-      <c r="M96" s="93"/>
-      <c r="N96" s="93"/>
-      <c r="O96" s="93"/>
-      <c r="P96" s="93"/>
-      <c r="Q96" s="93"/>
-      <c r="R96" s="93"/>
-      <c r="S96" s="93"/>
-      <c r="T96" s="93"/>
-      <c r="U96" s="93"/>
-      <c r="V96" s="93"/>
-      <c r="W96" s="93"/>
-      <c r="X96" s="93"/>
-      <c r="Y96" s="93"/>
-      <c r="Z96" s="93"/>
+      <c r="M96" s="145"/>
+      <c r="N96" s="145"/>
+      <c r="O96" s="145"/>
+      <c r="P96" s="145"/>
+      <c r="Q96" s="142"/>
+      <c r="R96" s="142"/>
+      <c r="S96" s="142"/>
+      <c r="T96" s="142"/>
+      <c r="U96" s="142"/>
+      <c r="V96" s="142"/>
+      <c r="W96" s="141"/>
+      <c r="X96" s="141"/>
+      <c r="Y96" s="141"/>
+      <c r="Z96" s="141"/>
       <c r="AA96" s="88"/>
-      <c r="AB96" s="148" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC96" s="93"/>
-      <c r="AD96" s="96"/>
-      <c r="AE96" s="99">
-        <v>11</v>
-      </c>
+      <c r="AB96" s="146"/>
+      <c r="AC96" s="146"/>
+      <c r="AD96" s="148"/>
+      <c r="AE96" s="150"/>
       <c r="AF96" s="85"/>
-      <c r="AG96" s="93"/>
-      <c r="AH96" s="93"/>
+      <c r="AG96" s="141"/>
+      <c r="AH96" s="141"/>
       <c r="AI96" s="88"/>
-      <c r="AJ96" s="150" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK96" s="99">
-        <v>16</v>
-      </c>
+      <c r="AJ96" s="148"/>
+      <c r="AK96" s="150"/>
       <c r="AL96" s="10"/>
     </row>
     <row r="97" spans="1:38" ht="13.5" customHeight="1">
       <c r="A97" s="10"/>
-      <c r="B97" s="102"/>
-      <c r="C97" s="100"/>
+      <c r="B97" s="156"/>
+      <c r="C97" s="160"/>
       <c r="D97" s="13"/>
       <c r="E97" s="87"/>
       <c r="F97" s="87"/>
       <c r="G97" s="85"/>
-      <c r="H97" s="102"/>
-      <c r="I97" s="119"/>
-      <c r="J97" s="119"/>
-      <c r="K97" s="100"/>
+      <c r="H97" s="156"/>
+      <c r="I97" s="159"/>
+      <c r="J97" s="159"/>
+      <c r="K97" s="160"/>
       <c r="L97" s="85"/>
       <c r="M97" s="13"/>
       <c r="N97" s="13"/>
       <c r="O97" s="87"/>
       <c r="P97" s="87"/>
       <c r="Q97" s="87"/>
-      <c r="R97" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="S97" s="93"/>
-      <c r="T97" s="93"/>
-      <c r="U97" s="93"/>
+      <c r="R97" s="94"/>
+      <c r="S97" s="94"/>
+      <c r="T97" s="94"/>
+      <c r="U97" s="94"/>
       <c r="V97" s="87"/>
       <c r="W97" s="87"/>
       <c r="X97" s="87"/>
       <c r="Y97" s="87"/>
       <c r="Z97" s="87"/>
       <c r="AA97" s="88"/>
-      <c r="AB97" s="119"/>
-      <c r="AC97" s="119"/>
-      <c r="AD97" s="100"/>
-      <c r="AE97" s="100"/>
+      <c r="AB97" s="154"/>
+      <c r="AC97" s="154"/>
+      <c r="AD97" s="153"/>
+      <c r="AE97" s="151"/>
       <c r="AF97" s="85"/>
       <c r="AG97" s="87"/>
       <c r="AH97" s="87"/>
       <c r="AI97" s="88"/>
-      <c r="AJ97" s="100"/>
-      <c r="AK97" s="100"/>
+      <c r="AJ97" s="153"/>
+      <c r="AK97" s="151"/>
       <c r="AL97" s="10"/>
     </row>
     <row r="98" spans="1:38" ht="9" customHeight="1">
@@ -5641,10 +5670,10 @@
       <c r="O98" s="86"/>
       <c r="P98" s="86"/>
       <c r="Q98" s="86"/>
-      <c r="R98" s="145"/>
-      <c r="S98" s="93"/>
-      <c r="T98" s="93"/>
-      <c r="U98" s="93"/>
+      <c r="R98" s="143"/>
+      <c r="S98" s="143"/>
+      <c r="T98" s="143"/>
+      <c r="U98" s="143"/>
       <c r="V98" s="86"/>
       <c r="W98" s="86"/>
       <c r="X98" s="86"/>
@@ -5705,6 +5734,16 @@
     </row>
   </sheetData>
   <mergeCells count="254">
+    <mergeCell ref="E95:F96"/>
+    <mergeCell ref="AJ94:AJ95"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="I96:K97"/>
+    <mergeCell ref="I94:K95"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B94:B95"/>
     <mergeCell ref="AG83:AG84"/>
     <mergeCell ref="AG86:AG87"/>
     <mergeCell ref="N87:Y89"/>
@@ -5738,7 +5777,6 @@
     <mergeCell ref="AJ83:AJ84"/>
     <mergeCell ref="AJ86:AJ87"/>
     <mergeCell ref="AJ88:AJ89"/>
-    <mergeCell ref="AJ94:AJ95"/>
     <mergeCell ref="AB58:AD59"/>
     <mergeCell ref="AJ58:AJ59"/>
     <mergeCell ref="AK58:AK59"/>
@@ -5767,9 +5805,6 @@
     <mergeCell ref="I78:K79"/>
     <mergeCell ref="I80:K80"/>
     <mergeCell ref="I81:K82"/>
-    <mergeCell ref="I94:K95"/>
-    <mergeCell ref="E95:F96"/>
-    <mergeCell ref="I96:K97"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="I58:K59"/>
@@ -5798,8 +5833,6 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="F83:F84"/>
     <mergeCell ref="F86:F87"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="H96:H97"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="F42:F43"/>
     <mergeCell ref="F53:F54"/>
@@ -5871,15 +5904,11 @@
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="B86:B87"/>
     <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B97"/>
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="C81:C82"/>
     <mergeCell ref="C83:C84"/>
     <mergeCell ref="C86:C87"/>
     <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C96:C97"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C56:C57"/>
